--- a/www/terminologies/CodeSystem-terminologie-standardterms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-standardterms.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-26T00:00:00+00:00</t>
+    <t>2025-07-11T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -860,10 +860,10 @@
     <t>13197000</t>
   </si>
   <si>
-    <t>Granulés dans une capsule à ouvrir</t>
-  </si>
-  <si>
-    <t>Préparation unidose constituée de granulés enfermés dans une capsule ressemblant à une gélule. La cvapsule doit être ouverte et tout son contenu doit être administré par voie orale. La capsule elle-même n'est pas avalée et est jetée après ouverture. Pour les préparations constituées d'une capsule qui peut être avalée entière ou ouverte, le terme « gélule » est  utilisé à la place.</t>
+    <t>Granulés dans une gélule à ouvrir</t>
+  </si>
+  <si>
+    <t>Préparation unidose constituée de granulés enfermés dans une  gélule. La gélule doit être ouverte et tout son contenu doit être administré par voie orale. La gélule elle-même n'est pas avalée et est jetée après ouverture.</t>
   </si>
   <si>
     <t>10226000</t>
@@ -2927,7 +2927,7 @@
     <t>13194000</t>
   </si>
   <si>
-    <t>Solution  à libération prolongée pour injection en stylo pré-rempli</t>
+    <t>Solution injectable à libération prolongée  en stylo pré rempli</t>
   </si>
   <si>
     <t>Médicament consistant en une solution injectable à libération prolongée présentée dans un stylo prérempli.</t>
@@ -10554,10 +10554,10 @@
     <t>13198000</t>
   </si>
   <si>
-    <t>Poudre orale en capsule à ouvrir</t>
-  </si>
-  <si>
-    <t>Préparation unidose constituée d'une poudre orale enfermée dans une capsule ressemblant à une gélule. La capsule doit être ouverte et tout son contenu doit être administré par voie orale. La capsule  elle-même n'est pas avalée et est jetée après ouverture. Pour les préparations constituées d'une capsule qui peut être avalée entière ou ouverte, le terme « gélule » est utilisé à la place.</t>
+    <t>Poudre orale en gélule à ouvrir</t>
+  </si>
+  <si>
+    <t>Préparation unidose constituée d'une poudre orale enfermée dans une  gélule. La gélule doit être ouverte et tout son contenu doit être administré par voie orale. La gélule  elle-même n'est pas avalée et est jetée après ouverture. Pour les préparations constituées d'une capsule qui peut être avalée entière ou ouverte, le terme « gélule » est utilisé à la place.</t>
   </si>
   <si>
     <t>12104000</t>
